--- a/leyi表结构设计.xlsx
+++ b/leyi表结构设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1020" windowWidth="21060" windowHeight="14140" tabRatio="802" activeTab="2"/>
+    <workbookView xWindow="2280" yWindow="1020" windowWidth="21060" windowHeight="14140" tabRatio="802" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -2513,7 +2513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3128,7 +3128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/leyi表结构设计.xlsx
+++ b/leyi表结构设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1020" windowWidth="21060" windowHeight="14140" tabRatio="802" activeTab="4"/>
+    <workbookView xWindow="2280" yWindow="1020" windowWidth="21060" windowHeight="14140" tabRatio="802" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,11 @@
     <sheet name="文章标题概要表" sheetId="5" r:id="rId5"/>
     <sheet name="文章详细信息表" sheetId="6" r:id="rId6"/>
     <sheet name="文章评论留言表" sheetId="7" r:id="rId7"/>
-    <sheet name="审批记录表" sheetId="10" r:id="rId8"/>
-    <sheet name="角色管理表" sheetId="8" r:id="rId9"/>
-    <sheet name="用户角色表" sheetId="9" r:id="rId10"/>
+    <sheet name="审批申请表 " sheetId="11" r:id="rId8"/>
+    <sheet name="审批日志表" sheetId="10" r:id="rId9"/>
+    <sheet name="复核日志表 " sheetId="12" r:id="rId10"/>
+    <sheet name="角色管理表" sheetId="8" r:id="rId11"/>
+    <sheet name="用户角色表" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="229">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -532,23 +534,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pk_reviewInfo_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fk_reviewInfo_reviewOpr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>now()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>obj_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1203,10 +1193,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tb_review_info（审批信息记录）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1、记录审批结果信息；
 2、作为历史存储媒介；</t>
     <rPh sb="2" eb="3">
@@ -1343,6 +1329,217 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ju jue</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_review_log（审批日志表）</t>
+    <rPh sb="16" eb="17">
+      <t>ri zhi</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_review_apply（审批申请表）</t>
+    <rPh sb="18" eb="19">
+      <t>shen q</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关表名称</t>
+    <rPh sb="3" eb="4">
+      <t>m c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请时间</t>
+    <rPh sb="0" eb="1">
+      <t>shen q</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、记录审批申请流程信息；
+</t>
+    <rPh sb="2" eb="3">
+      <t>ji lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shen pi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shen q</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>liu c</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_reviewApply_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer(25)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请ID，关联tb_review_apply.id</t>
+    <rPh sb="0" eb="1">
+      <t>shen q</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>guan lian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_reviewLog_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>apply_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_review_apply.id</t>
+  </si>
+  <si>
+    <t>fk_reviewLog_applyId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、记录复核结果信息；</t>
+    <rPh sb="2" eb="3">
+      <t>ji lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jie guo</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_check_log（复核日志表）</t>
+    <rPh sb="13" eb="14">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ri zhi</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核意见</t>
+    <rPh sb="0" eb="1">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yi jian</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核人</t>
+    <rPh sb="0" eb="1">
+      <t>fu he</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核时间</t>
+    <rPh sb="0" eb="1">
+      <t>fu he</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核结果(A：通过，R：不通过)</t>
+    <rPh sb="0" eb="1">
+      <t>fu he</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_opr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk_checkLog_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_checkLog_applyId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_checkLog_checkOpr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fk_reviewLog_reviewOpr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">审批结果(A：通过，R：不通过，CC：复核中，CR：复核不通过，CA：复核通过)，CT：复核终止 </t>
+    <rPh sb="19" eb="20">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>bu tong guo</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>tong guo</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>fu he</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>zhong zhi</t>
     </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1544,38 +1741,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1595,14 +1765,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1920,121 +2117,121 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6" s="23"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="C8" s="21"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C9" s="21"/>
+      <c r="A9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:3" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:3" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" s="8" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
     </row>
     <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
     </row>
     <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2056,6 +2253,420 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A13:E13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2072,22 +2683,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2205,13 +2816,13 @@
     </row>
     <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
@@ -2323,31 +2934,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -2427,13 +3038,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -2526,22 +3137,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2602,22 +3213,22 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2625,14 +3236,14 @@
         <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2647,7 +3258,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2697,7 +3308,7 @@
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>59</v>
@@ -2722,7 +3333,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2761,7 +3372,7 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>27</v>
@@ -2770,10 +3381,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2784,13 +3395,13 @@
       <c r="E18" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
@@ -2878,22 +3489,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="A1" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -2932,14 +3543,14 @@
         <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,7 +3558,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -2959,17 +3570,17 @@
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -2984,12 +3595,12 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>59</v>
@@ -2999,7 +3610,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3021,7 +3632,7 @@
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>27</v>
@@ -3031,7 +3642,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3042,13 +3653,13 @@
       <c r="E12" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -3061,15 +3672,15 @@
         <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>41</v>
@@ -3079,12 +3690,12 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>60</v>
@@ -3093,23 +3704,23 @@
         <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>168</v>
+        <v>143</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3128,7 +3739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -3142,22 +3753,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3181,7 +3792,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -3229,11 +3840,11 @@
         <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3241,16 +3852,16 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3265,7 +3876,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3273,16 +3884,16 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3293,10 +3904,10 @@
         <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>34</v>
@@ -3304,13 +3915,13 @@
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
@@ -3319,17 +3930,17 @@
     </row>
     <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3340,13 +3951,13 @@
       <c r="E14" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
@@ -3359,10 +3970,10 @@
         <v>38</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -3389,22 +4000,22 @@
         <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -3445,22 +4056,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3484,7 +4095,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -3552,13 +4163,13 @@
       <c r="E11" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -3579,7 +4190,7 @@
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -3592,7 +4203,7 @@
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>60</v>
@@ -3637,22 +4248,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="A2" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3676,7 +4287,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
@@ -3691,7 +4302,7 @@
         <v>73</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -3750,7 +4361,7 @@
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
@@ -3760,17 +4371,17 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -3850,10 +4461,196 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="80.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3865,23 +4662,23 @@
     <col min="5" max="5" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+    <row r="1" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3905,7 +4702,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>12</v>
@@ -3917,160 +4714,160 @@
     </row>
     <row r="5" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>115</v>
+      <c r="A6" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>116</v>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>194</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="E9" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>122</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="A16" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>124</v>
+        <v>214</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>50</v>
@@ -4079,7 +4876,7 @@
         <v>120</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -4087,190 +4884,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A15:E15"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="41.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A14:E14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
